--- a/W2_Array/Grade.xlsx
+++ b/W2_Array/Grade.xlsx
@@ -492,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +503,7 @@
   <dimension ref="A1:T990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -579,7 +579,7 @@
         <v>85</v>
       </c>
       <c r="I2" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -659,7 +659,7 @@
         <v>73</v>
       </c>
       <c r="I4" s="2">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
